--- a/Documentação/Manter Aluno - Planilha Teste de Software.xlsx
+++ b/Documentação/Manter Aluno - Planilha Teste de Software.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maycon.pribeiro\PycharmProjects\gestaoProf-main\Documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gustavo.roliveira24\Downloads\gestaoProf-main\gestaoProf-main\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2710ED5-EB36-4E18-8B3D-40DEC975AA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE7D2CA-BDD2-4FD8-9A3A-230D27B1ED83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="634" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="78">
   <si>
     <t>Caso de teste</t>
   </si>
@@ -244,6 +244,30 @@
   </si>
   <si>
     <t>Fluxo Alternativo 6 - Professor tenta excluir código inexistente</t>
+  </si>
+  <si>
+    <t>Abriu o cadastramento</t>
+  </si>
+  <si>
+    <t>Posso tanto colocar nome ou numéro</t>
+  </si>
+  <si>
+    <t>cadastrado(a) com sucesso!</t>
+  </si>
+  <si>
+    <t>OK-Sucesso</t>
+  </si>
+  <si>
+    <t>NOK-Erro</t>
+  </si>
+  <si>
+    <t>Lista de alunos</t>
+  </si>
+  <si>
+    <t>Esperado</t>
+  </si>
+  <si>
+    <t>cleber</t>
   </si>
 </sst>
 </file>
@@ -564,7 +588,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -648,7 +672,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -660,37 +687,37 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1022,27 +1049,27 @@
     </row>
     <row r="3" spans="1:15" ht="12.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:15" ht="12.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
@@ -1109,34 +1136,34 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="38" t="s">
+      <c r="F13" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
       <c r="O13" s="36"/>
     </row>
     <row r="14" spans="1:15" ht="24.75" customHeight="1">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
       <c r="N14" t="s">
         <v>3</v>
       </c>
@@ -1181,12 +1208,12 @@
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
-      <c r="J17" s="38" t="s">
+      <c r="J17" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
       <c r="N17" t="s">
         <v>5</v>
       </c>
@@ -7155,14 +7182,14 @@
       <c r="D5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
       <c r="I5" s="45"/>
-      <c r="J5" s="46" t="s">
+      <c r="J5" s="44" t="s">
         <v>10</v>
       </c>
       <c r="K5" s="45"/>
@@ -7170,111 +7197,111 @@
     <row r="6" spans="3:11" ht="12.75" customHeight="1">
       <c r="C6" s="16"/>
       <c r="D6" s="18"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
       <c r="I6" s="45"/>
-      <c r="J6" s="43"/>
+      <c r="J6" s="47"/>
       <c r="K6" s="45"/>
     </row>
     <row r="7" spans="3:11" ht="12.75" customHeight="1">
       <c r="C7" s="16"/>
       <c r="D7" s="18"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
       <c r="I7" s="45"/>
-      <c r="J7" s="43"/>
+      <c r="J7" s="47"/>
       <c r="K7" s="45"/>
     </row>
     <row r="8" spans="3:11" ht="12.75" customHeight="1">
       <c r="C8" s="16"/>
       <c r="D8" s="18"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
       <c r="I8" s="45"/>
-      <c r="J8" s="43"/>
+      <c r="J8" s="47"/>
       <c r="K8" s="45"/>
     </row>
     <row r="9" spans="3:11" ht="12.75" customHeight="1">
       <c r="C9" s="16"/>
       <c r="D9" s="18"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
       <c r="I9" s="45"/>
-      <c r="J9" s="43"/>
+      <c r="J9" s="47"/>
       <c r="K9" s="45"/>
     </row>
     <row r="10" spans="3:11" ht="12.75" customHeight="1">
       <c r="C10" s="16"/>
       <c r="D10" s="18"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
       <c r="I10" s="45"/>
-      <c r="J10" s="43"/>
+      <c r="J10" s="47"/>
       <c r="K10" s="45"/>
     </row>
     <row r="11" spans="3:11" ht="12.75" customHeight="1">
       <c r="C11" s="16"/>
       <c r="D11" s="18"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
       <c r="I11" s="45"/>
-      <c r="J11" s="43"/>
+      <c r="J11" s="47"/>
       <c r="K11" s="45"/>
     </row>
     <row r="12" spans="3:11" ht="12.75" customHeight="1">
       <c r="C12" s="16"/>
       <c r="D12" s="18"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
       <c r="I12" s="45"/>
-      <c r="J12" s="43"/>
+      <c r="J12" s="47"/>
       <c r="K12" s="45"/>
     </row>
     <row r="13" spans="3:11" ht="12.75" customHeight="1">
       <c r="C13" s="16"/>
       <c r="D13" s="18"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
       <c r="I13" s="45"/>
-      <c r="J13" s="43"/>
+      <c r="J13" s="47"/>
       <c r="K13" s="45"/>
     </row>
     <row r="14" spans="3:11" ht="12.75" customHeight="1">
       <c r="C14" s="16"/>
       <c r="D14" s="18"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
       <c r="I14" s="45"/>
-      <c r="J14" s="43"/>
+      <c r="J14" s="47"/>
       <c r="K14" s="45"/>
     </row>
     <row r="15" spans="3:11" ht="12.75" customHeight="1">
       <c r="C15" s="16"/>
       <c r="D15" s="18"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
       <c r="I15" s="45"/>
-      <c r="J15" s="43"/>
+      <c r="J15" s="47"/>
       <c r="K15" s="45"/>
     </row>
     <row r="16" spans="3:11" ht="12.75" customHeight="1">
@@ -13189,6 +13216,14 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J11:K11"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="E5:I5"/>
     <mergeCell ref="J14:K14"/>
@@ -13203,14 +13238,6 @@
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="J9:K9"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J11:K11"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -13274,13 +13301,13 @@
       <c r="B2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
       <c r="H2" s="45"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -13306,13 +13333,13 @@
       <c r="B3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
       <c r="H3" s="45"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -13338,13 +13365,13 @@
       <c r="B4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
       <c r="H4" s="45"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -13426,11 +13453,11 @@
       <c r="B7" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
       <c r="H7" s="45"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -13453,12 +13480,12 @@
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1">
       <c r="A8" s="4"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
       <c r="H8" s="45"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -13509,14 +13536,14 @@
     </row>
     <row r="10" spans="1:26" ht="12.75" customHeight="1">
       <c r="A10" s="17"/>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
       <c r="H10" s="45"/>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
@@ -13600,11 +13627,11 @@
       <c r="B13" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
       <c r="H13" s="45"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -13686,11 +13713,11 @@
       <c r="B16" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
       <c r="H16" s="45"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -13772,11 +13799,11 @@
       <c r="B19" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
       <c r="H19" s="45"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -13799,12 +13826,12 @@
     </row>
     <row r="20" spans="1:26" ht="15" customHeight="1">
       <c r="A20" s="4"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
       <c r="H20" s="45"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -13855,15 +13882,15 @@
     </row>
     <row r="22" spans="1:26" ht="11.25" customHeight="1">
       <c r="A22" s="4"/>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="51"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="56"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -13885,14 +13912,14 @@
     </row>
     <row r="23" spans="1:26" ht="15" customHeight="1">
       <c r="A23" s="4"/>
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
       <c r="H23" s="45"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -41271,6 +41298,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B16:H16"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="B8:H8"/>
     <mergeCell ref="B10:H10"/>
@@ -41278,11 +41310,6 @@
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="C4:H4"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B16:H16"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -41293,8 +41320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z914"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -41310,14 +41337,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="25.5" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
       <c r="G1" s="45"/>
       <c r="H1" s="23"/>
       <c r="I1" s="23"/>
@@ -41340,14 +41367,14 @@
       <c r="Z1" s="23"/>
     </row>
     <row r="2" spans="1:26" ht="43.5" customHeight="1">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
       <c r="G2" s="45"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -41370,14 +41397,14 @@
       <c r="Z2" s="23"/>
     </row>
     <row r="3" spans="1:26" ht="29.25" customHeight="1">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
       <c r="G3" s="45"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
@@ -41400,25 +41427,25 @@
       <c r="Z3" s="23"/>
     </row>
     <row r="4" spans="1:26" ht="30.75" customHeight="1">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="58" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="57" t="s">
+      <c r="G4" s="58" t="s">
         <v>29</v>
       </c>
       <c r="H4" s="23"/>
@@ -41442,13 +41469,13 @@
       <c r="Z4" s="23"/>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A5" s="58"/>
-      <c r="B5" s="58"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
       <c r="C5" s="24"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
       <c r="H5" s="23"/>
       <c r="I5" s="23"/>
       <c r="J5" s="23"/>
@@ -41476,10 +41503,18 @@
       <c r="B6" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="25"/>
+      <c r="C6" s="34">
+        <v>1</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="35">
+        <v>44749</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>73</v>
+      </c>
       <c r="G6" s="25"/>
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
@@ -41508,10 +41543,18 @@
       <c r="B7" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="25"/>
+      <c r="C7" s="25">
+        <v>2</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="35">
+        <v>44749</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>74</v>
+      </c>
       <c r="G7" s="34"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
@@ -41541,9 +41584,15 @@
         <v>43</v>
       </c>
       <c r="C8" s="25"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="25"/>
+      <c r="D8" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="35">
+        <v>44749</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>73</v>
+      </c>
       <c r="G8" s="34"/>
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
@@ -41566,14 +41615,14 @@
       <c r="Z8" s="27"/>
     </row>
     <row r="9" spans="1:26" ht="26.25" customHeight="1">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
       <c r="G9" s="45"/>
       <c r="H9" s="23"/>
       <c r="I9" s="23"/>
@@ -41596,25 +41645,25 @@
       <c r="Z9" s="23"/>
     </row>
     <row r="10" spans="1:26" ht="30.75" customHeight="1">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="58" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="57" t="s">
+      <c r="D10" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="57" t="s">
+      <c r="E10" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="57" t="s">
+      <c r="F10" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="57" t="s">
+      <c r="G10" s="58" t="s">
         <v>29</v>
       </c>
       <c r="H10" s="23"/>
@@ -41638,13 +41687,13 @@
       <c r="Z10" s="23"/>
     </row>
     <row r="11" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A11" s="58"/>
-      <c r="B11" s="58"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="59"/>
       <c r="C11" s="24"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
       <c r="H11" s="23"/>
       <c r="I11" s="23"/>
       <c r="J11" s="23"/>
@@ -41672,10 +41721,18 @@
       <c r="B12" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
+      <c r="C12" s="25">
+        <v>2</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="35">
+        <v>44749</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>73</v>
+      </c>
       <c r="G12" s="25"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
@@ -41698,14 +41755,14 @@
       <c r="Z12" s="27"/>
     </row>
     <row r="13" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
       <c r="G13" s="45"/>
       <c r="H13" s="23"/>
       <c r="I13" s="23"/>
@@ -41728,25 +41785,25 @@
       <c r="Z13" s="23"/>
     </row>
     <row r="14" spans="1:26" ht="30.75" customHeight="1">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="58" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="57" t="s">
+      <c r="D14" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="57" t="s">
+      <c r="E14" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="57" t="s">
+      <c r="F14" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="57" t="s">
+      <c r="G14" s="58" t="s">
         <v>29</v>
       </c>
       <c r="H14" s="23"/>
@@ -41770,13 +41827,13 @@
       <c r="Z14" s="23"/>
     </row>
     <row r="15" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A15" s="58"/>
-      <c r="B15" s="58"/>
+      <c r="A15" s="59"/>
+      <c r="B15" s="59"/>
       <c r="C15" s="24"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
       <c r="J15" s="23"/>
@@ -41804,10 +41861,18 @@
       <c r="B16" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="25"/>
+      <c r="C16" s="25">
+        <v>3</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="37">
+        <v>44749</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>73</v>
+      </c>
       <c r="G16" s="25"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
@@ -41836,10 +41901,18 @@
       <c r="B17" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="25"/>
+      <c r="C17" s="25">
+        <v>2</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="37">
+        <v>44749</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>73</v>
+      </c>
       <c r="G17" s="25"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
@@ -41869,9 +41942,15 @@
         <v>50</v>
       </c>
       <c r="C18" s="25"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="25"/>
+      <c r="D18" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="38">
+        <v>44749</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>73</v>
+      </c>
       <c r="G18" s="25"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
@@ -41894,14 +41973,14 @@
       <c r="Z18" s="27"/>
     </row>
     <row r="19" spans="1:26" ht="27.75" customHeight="1">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
       <c r="G19" s="45"/>
       <c r="H19" s="23"/>
       <c r="I19" s="23"/>
@@ -41924,25 +42003,25 @@
       <c r="Z19" s="23"/>
     </row>
     <row r="20" spans="1:26" ht="30.75" customHeight="1">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="58" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="57" t="s">
+      <c r="D20" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="57" t="s">
+      <c r="E20" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="57" t="s">
+      <c r="F20" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="G20" s="57" t="s">
+      <c r="G20" s="58" t="s">
         <v>29</v>
       </c>
       <c r="H20" s="23"/>
@@ -41966,13 +42045,13 @@
       <c r="Z20" s="23"/>
     </row>
     <row r="21" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A21" s="58"/>
-      <c r="B21" s="58"/>
+      <c r="A21" s="59"/>
+      <c r="B21" s="59"/>
       <c r="C21" s="24"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
       <c r="H21" s="23"/>
       <c r="I21" s="23"/>
       <c r="J21" s="23"/>
@@ -42000,10 +42079,18 @@
       <c r="B22" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="25"/>
+      <c r="C22" s="25">
+        <v>4</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="38">
+        <v>44749</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>73</v>
+      </c>
       <c r="G22" s="25"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
@@ -42032,10 +42119,18 @@
       <c r="B23" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
+      <c r="C23" s="25">
+        <v>2</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="35">
+        <v>44749</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>73</v>
+      </c>
       <c r="G23" s="25"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
@@ -42065,9 +42160,15 @@
         <v>54</v>
       </c>
       <c r="C24" s="25"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="25"/>
+      <c r="D24" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="38">
+        <v>44749</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>73</v>
+      </c>
       <c r="G24" s="25"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
@@ -42090,14 +42191,14 @@
       <c r="Z24" s="27"/>
     </row>
     <row r="25" spans="1:26" ht="36" customHeight="1">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
       <c r="G25" s="45"/>
       <c r="H25" s="23"/>
       <c r="I25" s="23"/>
@@ -42120,25 +42221,25 @@
       <c r="Z25" s="23"/>
     </row>
     <row r="26" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A26" s="57" t="s">
+      <c r="A26" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="57" t="s">
+      <c r="B26" s="58" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="57" t="s">
+      <c r="D26" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="57" t="s">
+      <c r="E26" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="57" t="s">
+      <c r="F26" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="G26" s="57" t="s">
+      <c r="G26" s="58" t="s">
         <v>29</v>
       </c>
       <c r="H26" s="23"/>
@@ -42162,13 +42263,13 @@
       <c r="Z26" s="23"/>
     </row>
     <row r="27" spans="1:26" ht="47.25" customHeight="1">
-      <c r="A27" s="58"/>
-      <c r="B27" s="58"/>
+      <c r="A27" s="59"/>
+      <c r="B27" s="59"/>
       <c r="C27" s="24"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
       <c r="H27" s="23"/>
       <c r="I27" s="23"/>
       <c r="J27" s="23"/>
@@ -42196,10 +42297,18 @@
       <c r="B28" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="25"/>
+      <c r="C28" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="38">
+        <v>44749</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>73</v>
+      </c>
       <c r="G28" s="25"/>
       <c r="H28" s="23"/>
       <c r="I28" s="23"/>
@@ -42229,9 +42338,15 @@
         <v>60</v>
       </c>
       <c r="C29" s="25"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
+      <c r="D29" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="35">
+        <v>44749</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>73</v>
+      </c>
       <c r="G29" s="25"/>
       <c r="H29" s="23"/>
       <c r="I29" s="23"/>
@@ -42260,10 +42375,18 @@
       <c r="B30" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="25"/>
+      <c r="C30" s="25">
+        <v>1</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="38">
+        <v>44749</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>73</v>
+      </c>
       <c r="G30" s="25"/>
       <c r="H30" s="23"/>
       <c r="I30" s="23"/>
@@ -42286,14 +42409,14 @@
       <c r="Z30" s="23"/>
     </row>
     <row r="31" spans="1:26" ht="46.5" customHeight="1">
-      <c r="A31" s="56" t="s">
+      <c r="A31" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
       <c r="G31" s="45"/>
       <c r="H31" s="23"/>
       <c r="I31" s="23"/>
@@ -42316,25 +42439,25 @@
       <c r="Z31" s="23"/>
     </row>
     <row r="32" spans="1:26" ht="41.25" customHeight="1">
-      <c r="A32" s="57" t="s">
+      <c r="A32" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="58" t="s">
         <v>24</v>
       </c>
       <c r="C32" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="57" t="s">
+      <c r="D32" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="E32" s="57" t="s">
+      <c r="E32" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="F32" s="57" t="s">
+      <c r="F32" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="G32" s="57" t="s">
+      <c r="G32" s="58" t="s">
         <v>29</v>
       </c>
       <c r="H32" s="23"/>
@@ -42358,13 +42481,13 @@
       <c r="Z32" s="23"/>
     </row>
     <row r="33" spans="1:26" ht="54.75" customHeight="1">
-      <c r="A33" s="58"/>
-      <c r="B33" s="58"/>
+      <c r="A33" s="59"/>
+      <c r="B33" s="59"/>
       <c r="C33" s="24"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
       <c r="H33" s="23"/>
       <c r="I33" s="23"/>
       <c r="J33" s="23"/>
@@ -42392,10 +42515,18 @@
       <c r="B34" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="25"/>
+      <c r="C34" s="25">
+        <v>2</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="38">
+        <v>44749</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>73</v>
+      </c>
       <c r="G34" s="25"/>
       <c r="H34" s="23"/>
       <c r="I34" s="23"/>
@@ -42418,14 +42549,14 @@
       <c r="Z34" s="23"/>
     </row>
     <row r="35" spans="1:26" ht="57.75" customHeight="1">
-      <c r="A35" s="56" t="s">
+      <c r="A35" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
       <c r="G35" s="45"/>
       <c r="H35" s="23"/>
       <c r="I35" s="23"/>
@@ -42448,25 +42579,25 @@
       <c r="Z35" s="23"/>
     </row>
     <row r="36" spans="1:26" ht="42.75" customHeight="1">
-      <c r="A36" s="57" t="s">
+      <c r="A36" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="57" t="s">
+      <c r="B36" s="58" t="s">
         <v>24</v>
       </c>
       <c r="C36" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="57" t="s">
+      <c r="D36" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="57" t="s">
+      <c r="E36" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="F36" s="57" t="s">
+      <c r="F36" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="G36" s="57" t="s">
+      <c r="G36" s="58" t="s">
         <v>29</v>
       </c>
       <c r="H36" s="23"/>
@@ -42490,13 +42621,13 @@
       <c r="Z36" s="23"/>
     </row>
     <row r="37" spans="1:26" ht="41.25" customHeight="1">
-      <c r="A37" s="58"/>
-      <c r="B37" s="58"/>
+      <c r="A37" s="59"/>
+      <c r="B37" s="59"/>
       <c r="C37" s="24"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
       <c r="H37" s="23"/>
       <c r="I37" s="23"/>
       <c r="J37" s="23"/>
@@ -42524,10 +42655,18 @@
       <c r="B38" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="25"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="25"/>
+      <c r="C38" s="25">
+        <v>5</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" s="38">
+        <v>44749</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>73</v>
+      </c>
       <c r="G38" s="25"/>
       <c r="H38" s="23"/>
       <c r="I38" s="23"/>
@@ -42550,14 +42689,14 @@
       <c r="Z38" s="23"/>
     </row>
     <row r="39" spans="1:26" ht="28.5" customHeight="1">
-      <c r="A39" s="56" t="s">
+      <c r="A39" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
       <c r="G39" s="45"/>
       <c r="H39" s="23"/>
       <c r="I39" s="23"/>
@@ -42580,25 +42719,25 @@
       <c r="Z39" s="23"/>
     </row>
     <row r="40" spans="1:26" ht="29.25" customHeight="1">
-      <c r="A40" s="57" t="s">
+      <c r="A40" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="57" t="s">
+      <c r="B40" s="58" t="s">
         <v>24</v>
       </c>
       <c r="C40" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="57" t="s">
+      <c r="D40" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="E40" s="57" t="s">
+      <c r="E40" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="F40" s="57" t="s">
+      <c r="F40" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="G40" s="57" t="s">
+      <c r="G40" s="58" t="s">
         <v>29</v>
       </c>
       <c r="H40" s="23"/>
@@ -42622,13 +42761,13 @@
       <c r="Z40" s="23"/>
     </row>
     <row r="41" spans="1:26" ht="42" customHeight="1">
-      <c r="A41" s="58"/>
-      <c r="B41" s="58"/>
+      <c r="A41" s="59"/>
+      <c r="B41" s="59"/>
       <c r="C41" s="24"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="58"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="58"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
       <c r="H41" s="23"/>
       <c r="I41" s="23"/>
       <c r="J41" s="23"/>
@@ -42656,10 +42795,18 @@
       <c r="B42" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="25"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="25"/>
+      <c r="C42" s="25">
+        <v>3</v>
+      </c>
+      <c r="D42" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E42" s="38">
+        <v>44749</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>73</v>
+      </c>
       <c r="G42" s="25"/>
       <c r="H42" s="23"/>
       <c r="I42" s="23"/>
@@ -67099,26 +67246,28 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A4:A5"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="E14:E15"/>
@@ -67135,28 +67284,26 @@
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="A13:G13"/>
     <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="A39:G39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <dataValidations count="1">
@@ -67170,6 +67317,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B5FCC05C4BAB3A49AE969D598778A5BE" ma:contentTypeVersion="2" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="be7edb50e0b1171ebf8bbef84b3c768e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a92eb9f6-d8f8-4a16-8f9c-2765c37e2af7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a56fba807be6361632dff4e17d20dc1" ns2:_="">
     <xsd:import namespace="a92eb9f6-d8f8-4a16-8f9c-2765c37e2af7"/>
@@ -67301,22 +67463,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDB17246-A840-4FB0-84E2-13CBB1730C02}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B343455A-6D68-4B0A-A5CA-A00A76109566}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB280386-773B-4451-9432-0687FD7115B6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -67332,21 +67496,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B343455A-6D68-4B0A-A5CA-A00A76109566}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDB17246-A840-4FB0-84E2-13CBB1730C02}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>